--- a/data/input_file/email_data.xlsx
+++ b/data/input_file/email_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>First Name</t>
   </si>
@@ -33,22 +33,25 @@
     <t>vijurnerkar@gmail.com</t>
   </si>
   <si>
-    <t>viju</t>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>company_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nds.nitin@gmail.com </t>
+  </si>
+  <si>
+    <t>www</t>
   </si>
   <si>
     <t>Nitin</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>pqr</t>
-  </si>
-  <si>
-    <t>company_name</t>
+    <t>Viju</t>
   </si>
 </sst>
 </file>
@@ -72,18 +75,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -98,10 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,7 +414,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -429,7 +425,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -440,10 +436,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -454,11 +450,11 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -469,7 +465,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/data/input_file/email_data.xlsx
+++ b/data/input_file/email_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="9">
   <si>
     <t>First Name</t>
   </si>
@@ -40,15 +40,6 @@
   </si>
   <si>
     <t>company_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nds.nitin@gmail.com </t>
-  </si>
-  <si>
-    <t>www</t>
-  </si>
-  <si>
-    <t>Nitin</t>
   </si>
   <si>
     <t>Viju</t>
@@ -399,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -447,13 +438,1388 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
